--- a/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v3.xlsx
+++ b/Projects/INBEVTRADMX/Data/inbevtradmx_template_11_v3.xlsx
@@ -24,6 +24,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">template!$A$1:$W$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -190,9 +191,6 @@
     <t xml:space="preserve">product_type, manufacturer_name, brand_name, store_type, Store Additional Attribute 4, template_name</t>
   </si>
   <si>
-    <t xml:space="preserve">SOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marcas Craft</t>
   </si>
   <si>
@@ -266,6 +264,9 @@
   </si>
   <si>
     <t xml:space="preserve">product_type, manufacturer_name, store_type, Store Additional Attribute 4, Store Additional Attribute 13, template_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: primera posicion</t>
@@ -1119,40 +1120,40 @@
   </sheetPr>
   <dimension ref="1:71"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="V8" activeCellId="0" sqref="V8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="X4" activeCellId="0" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="75.1887755102041"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="54.265306122449"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="140.933673469388"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="154.295918367347"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="3" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="74.2448979591837"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="139.44387755102"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="152.540816326531"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="3" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3436,7 +3437,7 @@
         <v>50</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="Y4" s="8"/>
       <c r="Z4" s="0"/>
@@ -4447,7 +4448,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>46</v>
@@ -4479,7 +4480,7 @@
         <v>30</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" s="11" t="n">
         <v>5</v>
@@ -4497,7 +4498,7 @@
         <v>48</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V5" s="11" t="s">
         <v>50</v>
@@ -5511,10 +5512,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>29</v>
@@ -5543,7 +5544,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>30</v>
@@ -5561,13 +5562,13 @@
         <v>30</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="X6" s="10" t="s">
         <v>35</v>
@@ -6578,7 +6579,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>44</v>
@@ -6613,7 +6614,7 @@
         <v>30</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P7" s="11" t="n">
         <v>25</v>
@@ -6631,13 +6632,13 @@
         <v>48</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V7" s="11" t="s">
         <v>50</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="Y7" s="8"/>
       <c r="Z7" s="0"/>
@@ -7645,10 +7646,10 @@
         <v>26</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>30</v>
@@ -7662,10 +7663,10 @@
         <v>153</v>
       </c>
       <c r="I8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>30</v>
@@ -7698,26 +7699,26 @@
         <v>30</v>
       </c>
       <c r="U8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="V8" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="W8" s="0"/>
       <c r="X8" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>46</v>
@@ -7739,7 +7740,7 @@
         <v>30</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>30</v>
@@ -7760,22 +7761,22 @@
         <v>31</v>
       </c>
       <c r="R9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="Y9" s="8"/>
       <c r="Z9" s="0"/>
@@ -8780,10 +8781,10 @@
     </row>
     <row r="10" s="20" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>77</v>
@@ -8827,10 +8828,10 @@
         <v>31</v>
       </c>
       <c r="R10" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="S10" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="T10" s="16" t="s">
         <v>30</v>
@@ -8843,13 +8844,13 @@
       </c>
       <c r="W10" s="0"/>
       <c r="X10" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y10" s="19"/>
     </row>
     <row r="11" s="20" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>82</v>
@@ -8872,7 +8873,7 @@
         <v>84</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>30</v>
@@ -8896,10 +8897,10 @@
         <v>31</v>
       </c>
       <c r="R11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="S11" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="T11" s="16" t="s">
         <v>30</v>
@@ -8912,13 +8913,13 @@
       </c>
       <c r="W11" s="0"/>
       <c r="X11" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>82</v>
@@ -8965,13 +8966,13 @@
         <v>31</v>
       </c>
       <c r="R12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>88</v>
@@ -9985,7 +9986,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>82</v>
@@ -10032,13 +10033,13 @@
         <v>31</v>
       </c>
       <c r="R13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="S13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="T13" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="U13" s="13" t="s">
         <v>92</v>
@@ -11052,7 +11053,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>82</v>
@@ -11099,13 +11100,13 @@
         <v>31</v>
       </c>
       <c r="R14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="S14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="T14" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="U14" s="13" t="s">
         <v>95</v>
@@ -12119,7 +12120,7 @@
     </row>
     <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>82</v>
@@ -12145,7 +12146,7 @@
         <v>30</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>30</v>
@@ -12166,13 +12167,13 @@
         <v>31</v>
       </c>
       <c r="R15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="U15" s="22" t="s">
         <v>98</v>
@@ -13186,7 +13187,7 @@
     </row>
     <row r="16" s="29" customFormat="true" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>82</v>
@@ -13233,13 +13234,13 @@
         <v>31</v>
       </c>
       <c r="R16" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="S16" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="T16" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="T16" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="U16" s="27" t="s">
         <v>101</v>
@@ -13249,7 +13250,7 @@
       </c>
       <c r="W16" s="0"/>
       <c r="X16" s="24" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Y16" s="28" t="n">
         <v>1</v>
@@ -13257,7 +13258,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>103</v>
@@ -13304,10 +13305,10 @@
         <v>31</v>
       </c>
       <c r="R17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="S17" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="T17" s="11" t="s">
         <v>106</v>
@@ -14324,7 +14325,7 @@
     </row>
     <row r="18" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>103</v>
@@ -14369,10 +14370,10 @@
         <v>31</v>
       </c>
       <c r="R18" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="S18" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="S18" s="22" t="s">
-        <v>73</v>
       </c>
       <c r="T18" s="22" t="s">
         <v>106</v>
@@ -14381,7 +14382,7 @@
         <v>110</v>
       </c>
       <c r="V18" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W18" s="0"/>
       <c r="X18" s="22" t="s">
@@ -14391,7 +14392,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>103</v>
@@ -14438,10 +14439,10 @@
         <v>31</v>
       </c>
       <c r="R19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S19" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>106</v>
@@ -15458,7 +15459,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>116</v>
@@ -15505,10 +15506,10 @@
         <v>31</v>
       </c>
       <c r="R20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S20" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="T20" s="14" t="s">
         <v>118</v>
@@ -16574,7 +16575,7 @@
         <v>31</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>123</v>
@@ -16586,7 +16587,7 @@
         <v>110</v>
       </c>
       <c r="V21" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W21" s="0"/>
       <c r="X21" s="11" t="s">
@@ -16643,7 +16644,7 @@
         <v>31</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>123</v>
@@ -17686,7 +17687,7 @@
         <v>84</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>30</v>
@@ -17710,7 +17711,7 @@
         <v>31</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S23" s="16" t="s">
         <v>123</v>
@@ -17726,7 +17727,7 @@
       </c>
       <c r="W23" s="0"/>
       <c r="X23" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y23" s="19"/>
     </row>
@@ -17779,13 +17780,13 @@
         <v>31</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>123</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>88</v>
@@ -18846,13 +18847,13 @@
         <v>31</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S25" s="10" t="s">
         <v>123</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U25" s="13" t="s">
         <v>92</v>
@@ -19913,13 +19914,13 @@
         <v>31</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S26" s="10" t="s">
         <v>123</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U26" s="13" t="s">
         <v>95</v>
@@ -20959,7 +20960,7 @@
         <v>30</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>30</v>
@@ -20980,13 +20981,13 @@
         <v>31</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>123</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U27" s="22" t="s">
         <v>125</v>
@@ -22047,7 +22048,7 @@
         <v>31</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S28" s="10" t="s">
         <v>123</v>
@@ -23072,10 +23073,10 @@
         <v>126</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>127</v>
@@ -23097,7 +23098,7 @@
         <v>30</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L29" s="21" t="s">
         <v>30</v>
@@ -23121,19 +23122,19 @@
         <v>128</v>
       </c>
       <c r="S29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T29" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="T29" s="10" t="s">
+      <c r="U29" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="U29" s="13" t="s">
+      <c r="V29" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="V29" s="37" t="s">
+      <c r="X29" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="Y29" s="8"/>
       <c r="Z29" s="38"/>
@@ -24141,7 +24142,7 @@
         <v>126</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>129</v>
@@ -24188,10 +24189,10 @@
         <v>128</v>
       </c>
       <c r="S30" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T30" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="T30" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="U30" s="13" t="s">
         <v>131</v>
@@ -24200,7 +24201,7 @@
         <v>132</v>
       </c>
       <c r="X30" s="10" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Y30" s="8"/>
       <c r="Z30" s="0"/>
@@ -25255,7 +25256,7 @@
         <v>128</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T31" s="11" t="s">
         <v>106</v>
@@ -25264,7 +25265,7 @@
         <v>110</v>
       </c>
       <c r="V31" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X31" s="10" t="s">
         <v>35</v>
@@ -26322,10 +26323,10 @@
         <v>128</v>
       </c>
       <c r="S32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T32" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="T32" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="U32" s="13" t="s">
         <v>88</v>
@@ -27389,10 +27390,10 @@
         <v>128</v>
       </c>
       <c r="S33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T33" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="T33" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="U33" s="13" t="s">
         <v>92</v>
@@ -28456,10 +28457,10 @@
         <v>128</v>
       </c>
       <c r="S34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T34" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="T34" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="U34" s="13" t="s">
         <v>95</v>
@@ -29499,7 +29500,7 @@
         <v>30</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L35" s="21" t="s">
         <v>30</v>
@@ -29523,10 +29524,10 @@
         <v>128</v>
       </c>
       <c r="S35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T35" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="T35" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="U35" s="13" t="s">
         <v>134</v>
@@ -30590,7 +30591,7 @@
         <v>128</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T36" s="10" t="s">
         <v>118</v>
@@ -31629,10 +31630,10 @@
         <v>160</v>
       </c>
       <c r="I37" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="K37" s="16" t="s">
         <v>30</v>
@@ -31659,20 +31660,20 @@
         <v>128</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T37" s="16" t="s">
         <v>30</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V37" s="16" t="s">
         <v>81</v>
       </c>
       <c r="W37" s="0"/>
       <c r="X37" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y37" s="19"/>
     </row>
@@ -31737,7 +31738,7 @@
         <v>110</v>
       </c>
       <c r="V38" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X38" s="10" t="s">
         <v>35</v>
@@ -32798,7 +32799,7 @@
         <v>123</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U39" s="13" t="s">
         <v>88</v>
@@ -33865,7 +33866,7 @@
         <v>123</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U40" s="2" t="s">
         <v>92</v>
@@ -34932,7 +34933,7 @@
         <v>123</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U41" s="2" t="s">
         <v>95</v>
@@ -35972,7 +35973,7 @@
         <v>30</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>30</v>
@@ -35999,7 +36000,7 @@
         <v>123</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>134</v>
@@ -38102,10 +38103,10 @@
         <v>160</v>
       </c>
       <c r="I44" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J44" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="K44" s="16" t="s">
         <v>30</v>
@@ -38138,14 +38139,14 @@
         <v>30</v>
       </c>
       <c r="U44" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V44" s="16" t="s">
         <v>81</v>
       </c>
       <c r="W44" s="0"/>
       <c r="X44" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y44" s="19"/>
     </row>
@@ -38154,10 +38155,10 @@
         <v>137</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>46</v>
@@ -38177,7 +38178,7 @@
         <v>30</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L45" s="12" t="s">
         <v>30</v>
@@ -38204,16 +38205,16 @@
         <v>30</v>
       </c>
       <c r="T45" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="U45" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="U45" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="V45" s="35" t="s">
         <v>139</v>
       </c>
       <c r="X45" s="10" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Y45" s="8"/>
       <c r="Z45" s="0"/>
@@ -39221,7 +39222,7 @@
         <v>137</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>129</v>
@@ -39269,7 +39270,7 @@
         <v>30</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U46" s="13" t="s">
         <v>140</v>
@@ -39278,7 +39279,7 @@
         <v>141</v>
       </c>
       <c r="X46" s="10" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Y46" s="8"/>
       <c r="Z46" s="0"/>
@@ -42470,7 +42471,7 @@
         <v>30</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U49" s="2" t="s">
         <v>88</v>
@@ -43537,7 +43538,7 @@
         <v>30</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U50" s="2" t="s">
         <v>92</v>
@@ -44604,7 +44605,7 @@
         <v>30</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U51" s="2" t="s">
         <v>95</v>
@@ -45644,7 +45645,7 @@
         <v>30</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>30</v>
@@ -45671,7 +45672,7 @@
         <v>30</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U52" s="2" t="s">
         <v>134</v>
@@ -49948,7 +49949,7 @@
         <v>141</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Y56" s="8"/>
       <c r="Z56" s="0"/>
@@ -51015,7 +51016,7 @@
         <v>139</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Y57" s="8"/>
       <c r="Z57" s="0"/>
@@ -53149,7 +53150,7 @@
         <v>141</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Y59" s="8"/>
       <c r="Z59" s="0"/>
@@ -54216,7 +54217,7 @@
         <v>139</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Y60" s="8"/>
       <c r="Z60" s="0"/>
@@ -56350,7 +56351,7 @@
         <v>141</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Y62" s="8"/>
       <c r="Z62" s="0"/>
@@ -57417,7 +57418,7 @@
         <v>177</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Y63" s="8"/>
       <c r="Z63" s="0"/>
@@ -59551,7 +59552,7 @@
         <v>141</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Y65" s="8"/>
       <c r="Z65" s="0"/>
@@ -60618,7 +60619,7 @@
         <v>177</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Y66" s="8"/>
       <c r="Z66" s="0"/>
@@ -66977,13 +66978,10 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="X4 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
@@ -67104,13 +67102,10 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="X4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
